--- a/src/data/data_level_grade_02.xlsx
+++ b/src/data/data_level_grade_02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\PY_TEST\Test01_render\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D9C0CD-4BBB-4515-8B8E-F0E780CDB396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF0771D-ECE2-459A-B68A-23B505933181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
@@ -865,11 +865,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:J513"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A466" workbookViewId="0">
-      <selection activeCell="E509" sqref="E509:E512"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -915,7 +914,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -943,7 +942,7 @@
         <v>5.128205128205128E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -971,7 +970,7 @@
         <v>2.564102564102564E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -999,7 +998,7 @@
         <v>5.128205128205128E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1027,7 +1026,7 @@
         <v>0.10256410256410256</v>
       </c>
     </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1055,7 +1054,7 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1083,7 +1082,7 @@
         <v>0.12820512820512819</v>
       </c>
     </row>
-    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -1111,7 +1110,7 @@
         <v>5.128205128205128E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1139,7 +1138,7 @@
         <v>0.17948717948717949</v>
       </c>
     </row>
-    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1167,7 +1166,7 @@
         <v>0.10256410256410256</v>
       </c>
     </row>
-    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -1195,7 +1194,7 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1223,7 +1222,7 @@
         <v>5.128205128205128E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1251,7 +1250,7 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -1279,7 +1278,7 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
@@ -1307,7 +1306,7 @@
         <v>2.564102564102564E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -1335,7 +1334,7 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
@@ -1363,7 +1362,7 @@
         <v>5.128205128205128E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
@@ -1391,7 +1390,7 @@
         <v>2.3809523809523808E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>26</v>
       </c>
@@ -1419,7 +1418,7 @@
         <v>2.3809523809523808E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>26</v>
       </c>
@@ -1447,7 +1446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
@@ -1475,7 +1474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>26</v>
       </c>
@@ -1503,7 +1502,7 @@
         <v>7.1428571428571425E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
@@ -1531,7 +1530,7 @@
         <v>0.11904761904761904</v>
       </c>
     </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
@@ -1559,7 +1558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
@@ -1587,7 +1586,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
@@ -1615,7 +1614,7 @@
         <v>4.7619047619047616E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -1643,7 +1642,7 @@
         <v>7.1428571428571425E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -1671,7 +1670,7 @@
         <v>2.3809523809523808E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>26</v>
       </c>
@@ -1699,7 +1698,7 @@
         <v>7.1428571428571425E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>26</v>
       </c>
@@ -1727,7 +1726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1755,7 +1754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>26</v>
       </c>
@@ -1783,7 +1782,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>26</v>
       </c>
@@ -1811,7 +1810,7 @@
         <v>2.3809523809523808E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>27</v>
       </c>
@@ -1839,7 +1838,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>27</v>
       </c>
@@ -1867,7 +1866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>27</v>
       </c>
@@ -1895,7 +1894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>27</v>
       </c>
@@ -1923,7 +1922,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>27</v>
       </c>
@@ -1951,7 +1950,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>27</v>
       </c>
@@ -1979,7 +1978,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>27</v>
       </c>
@@ -2007,7 +2006,7 @@
         <v>2.564102564102564E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>27</v>
       </c>
@@ -2035,7 +2034,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>27</v>
       </c>
@@ -2063,7 +2062,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>27</v>
       </c>
@@ -2091,7 +2090,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>27</v>
       </c>
@@ -2119,7 +2118,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>27</v>
       </c>
@@ -2147,7 +2146,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>27</v>
       </c>
@@ -2175,7 +2174,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>27</v>
       </c>
@@ -2203,7 +2202,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>27</v>
       </c>
@@ -2231,7 +2230,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>27</v>
       </c>
@@ -2259,7 +2258,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>28</v>
       </c>
@@ -2287,7 +2286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>28</v>
       </c>
@@ -2315,7 +2314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>28</v>
       </c>
@@ -2343,7 +2342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>28</v>
       </c>
@@ -2371,7 +2370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>28</v>
       </c>
@@ -2399,7 +2398,7 @@
         <v>4.878048780487805E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>28</v>
       </c>
@@ -2427,7 +2426,7 @@
         <v>7.3170731707317069E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>28</v>
       </c>
@@ -2455,7 +2454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>28</v>
       </c>
@@ -2483,7 +2482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>28</v>
       </c>
@@ -2511,7 +2510,7 @@
         <v>0.12195121951219512</v>
       </c>
     </row>
-    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>28</v>
       </c>
@@ -2539,7 +2538,7 @@
         <v>7.3170731707317069E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>28</v>
       </c>
@@ -2567,7 +2566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>28</v>
       </c>
@@ -2595,7 +2594,7 @@
         <v>4.878048780487805E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>28</v>
       </c>
@@ -2623,7 +2622,7 @@
         <v>9.7560975609756101E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>28</v>
       </c>
@@ -2651,7 +2650,7 @@
         <v>2.4390243902439025E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>28</v>
       </c>
@@ -2679,7 +2678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>28</v>
       </c>
@@ -2707,7 +2706,7 @@
         <v>2.4390243902439025E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>29</v>
       </c>
@@ -2735,7 +2734,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>29</v>
       </c>
@@ -2763,7 +2762,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>29</v>
       </c>
@@ -2791,7 +2790,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>29</v>
       </c>
@@ -2819,7 +2818,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>29</v>
       </c>
@@ -2847,7 +2846,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>29</v>
       </c>
@@ -2875,7 +2874,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>29</v>
       </c>
@@ -2903,7 +2902,7 @@
         <v>0.15789473684210525</v>
       </c>
     </row>
-    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>29</v>
       </c>
@@ -2931,7 +2930,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>29</v>
       </c>
@@ -2959,7 +2958,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>29</v>
       </c>
@@ -2987,7 +2986,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>29</v>
       </c>
@@ -3015,7 +3014,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>29</v>
       </c>
@@ -3043,7 +3042,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>29</v>
       </c>
@@ -3071,7 +3070,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>29</v>
       </c>
@@ -3099,7 +3098,7 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>29</v>
       </c>
@@ -3127,7 +3126,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>29</v>
       </c>
@@ -3155,7 +3154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>30</v>
       </c>
@@ -3183,7 +3182,7 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>30</v>
       </c>
@@ -3211,7 +3210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>30</v>
       </c>
@@ -3239,7 +3238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>30</v>
       </c>
@@ -3267,7 +3266,7 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>30</v>
       </c>
@@ -3295,7 +3294,7 @@
         <v>5.128205128205128E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>30</v>
       </c>
@@ -3323,7 +3322,7 @@
         <v>5.128205128205128E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>30</v>
       </c>
@@ -3351,7 +3350,7 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>30</v>
       </c>
@@ -3379,7 +3378,7 @@
         <v>0.12820512820512819</v>
       </c>
     </row>
-    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>30</v>
       </c>
@@ -3407,7 +3406,7 @@
         <v>5.128205128205128E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>30</v>
       </c>
@@ -3435,7 +3434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>30</v>
       </c>
@@ -3463,7 +3462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>30</v>
       </c>
@@ -3491,7 +3490,7 @@
         <v>0.20512820512820512</v>
       </c>
     </row>
-    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>30</v>
       </c>
@@ -3519,7 +3518,7 @@
         <v>0.17948717948717949</v>
       </c>
     </row>
-    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>30</v>
       </c>
@@ -3547,7 +3546,7 @@
         <v>0.12820512820512819</v>
       </c>
     </row>
-    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>30</v>
       </c>
@@ -3575,7 +3574,7 @@
         <v>0.15384615384615385</v>
       </c>
     </row>
-    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>30</v>
       </c>
@@ -3603,7 +3602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>31</v>
       </c>
@@ -3631,7 +3630,7 @@
         <v>0.12820512820512819</v>
       </c>
     </row>
-    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>31</v>
       </c>
@@ -3659,7 +3658,7 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>31</v>
       </c>
@@ -3687,7 +3686,7 @@
         <v>2.564102564102564E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>31</v>
       </c>
@@ -3715,7 +3714,7 @@
         <v>0.12820512820512819</v>
       </c>
     </row>
-    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>31</v>
       </c>
@@ -3743,7 +3742,7 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>31</v>
       </c>
@@ -3771,7 +3770,7 @@
         <v>2.564102564102564E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>31</v>
       </c>
@@ -3799,7 +3798,7 @@
         <v>0.10256410256410256</v>
       </c>
     </row>
-    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>31</v>
       </c>
@@ -3827,7 +3826,7 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>31</v>
       </c>
@@ -3855,7 +3854,7 @@
         <v>0.12820512820512819</v>
       </c>
     </row>
-    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>31</v>
       </c>
@@ -3883,7 +3882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>31</v>
       </c>
@@ -3911,7 +3910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>31</v>
       </c>
@@ -3939,7 +3938,7 @@
         <v>0.20512820512820512</v>
       </c>
     </row>
-    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>31</v>
       </c>
@@ -3967,7 +3966,7 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>31</v>
       </c>
@@ -3995,7 +3994,7 @@
         <v>0.20512820512820512</v>
       </c>
     </row>
-    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>31</v>
       </c>
@@ -4023,7 +4022,7 @@
         <v>2.564102564102564E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>31</v>
       </c>
@@ -4051,7 +4050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>32</v>
       </c>
@@ -4079,7 +4078,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>32</v>
       </c>
@@ -4107,7 +4106,7 @@
         <v>2.6315789473684209E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>32</v>
       </c>
@@ -4135,7 +4134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>32</v>
       </c>
@@ -4163,7 +4162,7 @@
         <v>2.6315789473684209E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>32</v>
       </c>
@@ -4191,7 +4190,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>32</v>
       </c>
@@ -4219,7 +4218,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>32</v>
       </c>
@@ -4247,7 +4246,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>32</v>
       </c>
@@ -4275,7 +4274,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>32</v>
       </c>
@@ -4303,7 +4302,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>32</v>
       </c>
@@ -4331,7 +4330,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>32</v>
       </c>
@@ -4359,7 +4358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>32</v>
       </c>
@@ -4387,7 +4386,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>32</v>
       </c>
@@ -4415,7 +4414,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>32</v>
       </c>
@@ -4443,7 +4442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>32</v>
       </c>
@@ -4471,7 +4470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>32</v>
       </c>
@@ -4499,7 +4498,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>33</v>
       </c>
@@ -4527,7 +4526,7 @@
         <v>2.8571428571428571E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>33</v>
       </c>
@@ -4555,7 +4554,7 @@
         <v>5.7142857142857141E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>33</v>
       </c>
@@ -4583,7 +4582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>33</v>
       </c>
@@ -4611,7 +4610,7 @@
         <v>5.7142857142857141E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>33</v>
       </c>
@@ -4639,7 +4638,7 @@
         <v>2.8571428571428571E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>33</v>
       </c>
@@ -4667,7 +4666,7 @@
         <v>2.8571428571428571E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>33</v>
       </c>
@@ -4695,7 +4694,7 @@
         <v>2.8571428571428571E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>33</v>
       </c>
@@ -4723,7 +4722,7 @@
         <v>0.11428571428571428</v>
       </c>
     </row>
-    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>33</v>
       </c>
@@ -4751,7 +4750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>33</v>
       </c>
@@ -4779,7 +4778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>33</v>
       </c>
@@ -4807,7 +4806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>33</v>
       </c>
@@ -4835,7 +4834,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>33</v>
       </c>
@@ -4863,7 +4862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>33</v>
       </c>
@@ -4891,7 +4890,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>33</v>
       </c>
@@ -4919,7 +4918,7 @@
         <v>5.7142857142857141E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>33</v>
       </c>
@@ -4947,7 +4946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>35</v>
       </c>
@@ -4975,7 +4974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>35</v>
       </c>
@@ -5003,7 +5002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>35</v>
       </c>
@@ -5031,7 +5030,7 @@
         <v>5.8823529411764705E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>35</v>
       </c>
@@ -5059,7 +5058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>35</v>
       </c>
@@ -5087,7 +5086,7 @@
         <v>5.8823529411764705E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>35</v>
       </c>
@@ -5115,7 +5114,7 @@
         <v>0.11764705882352941</v>
       </c>
     </row>
-    <row r="152" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>35</v>
       </c>
@@ -5143,7 +5142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>35</v>
       </c>
@@ -5171,7 +5170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>35</v>
       </c>
@@ -5199,7 +5198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>35</v>
       </c>
@@ -5227,7 +5226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>35</v>
       </c>
@@ -5255,7 +5254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>35</v>
       </c>
@@ -5283,7 +5282,7 @@
         <v>5.8823529411764705E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>35</v>
       </c>
@@ -5311,7 +5310,7 @@
         <v>0.12121212121212122</v>
       </c>
     </row>
-    <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>35</v>
       </c>
@@ -5339,7 +5338,7 @@
         <v>5.8823529411764705E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>35</v>
       </c>
@@ -5367,7 +5366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>35</v>
       </c>
@@ -5395,7 +5394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>36</v>
       </c>
@@ -5423,7 +5422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>36</v>
       </c>
@@ -5451,7 +5450,7 @@
         <v>9.6774193548387094E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>36</v>
       </c>
@@ -5479,7 +5478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>36</v>
       </c>
@@ -5507,7 +5506,7 @@
         <v>9.6774193548387094E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>36</v>
       </c>
@@ -5535,7 +5534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>36</v>
       </c>
@@ -5563,7 +5562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>36</v>
       </c>
@@ -5591,7 +5590,7 @@
         <v>0.19354838709677419</v>
       </c>
     </row>
-    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>36</v>
       </c>
@@ -5619,7 +5618,7 @@
         <v>0.16129032258064516</v>
       </c>
     </row>
-    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>36</v>
       </c>
@@ -5647,7 +5646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>36</v>
       </c>
@@ -5675,7 +5674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>36</v>
       </c>
@@ -5703,7 +5702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>36</v>
       </c>
@@ -5731,7 +5730,7 @@
         <v>6.4516129032258063E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>36</v>
       </c>
@@ -5759,7 +5758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>36</v>
       </c>
@@ -5787,7 +5786,7 @@
         <v>6.4516129032258063E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>36</v>
       </c>
@@ -5815,7 +5814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>36</v>
       </c>
@@ -5843,7 +5842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>37</v>
       </c>
@@ -5871,7 +5870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>37</v>
       </c>
@@ -5899,7 +5898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>37</v>
       </c>
@@ -5927,7 +5926,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="181" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>37</v>
       </c>
@@ -5955,7 +5954,7 @@
         <v>3.0303030303030304E-2</v>
       </c>
     </row>
-    <row r="182" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>37</v>
       </c>
@@ -5983,7 +5982,7 @@
         <v>6.0606060606060608E-2</v>
       </c>
     </row>
-    <row r="183" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>37</v>
       </c>
@@ -6011,7 +6010,7 @@
         <v>6.0606060606060608E-2</v>
       </c>
     </row>
-    <row r="184" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>37</v>
       </c>
@@ -6039,7 +6038,7 @@
         <v>6.0606060606060608E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>37</v>
       </c>
@@ -6067,7 +6066,7 @@
         <v>0.12121212121212122</v>
       </c>
     </row>
-    <row r="186" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>37</v>
       </c>
@@ -6095,7 +6094,7 @@
         <v>0.12121212121212122</v>
       </c>
     </row>
-    <row r="187" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>37</v>
       </c>
@@ -6123,7 +6122,7 @@
         <v>3.0303030303030304E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>37</v>
       </c>
@@ -6151,7 +6150,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="189" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>37</v>
       </c>
@@ -6179,7 +6178,7 @@
         <v>0.12121212121212122</v>
       </c>
     </row>
-    <row r="190" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>37</v>
       </c>
@@ -6207,7 +6206,7 @@
         <v>0.27272727272727271</v>
       </c>
     </row>
-    <row r="191" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>37</v>
       </c>
@@ -6235,7 +6234,7 @@
         <v>0.12121212121212122</v>
       </c>
     </row>
-    <row r="192" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>37</v>
       </c>
@@ -6263,7 +6262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>37</v>
       </c>
@@ -6291,7 +6290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>38</v>
       </c>
@@ -6319,7 +6318,7 @@
         <v>2.9411764705882353E-2</v>
       </c>
     </row>
-    <row r="195" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>38</v>
       </c>
@@ -6347,7 +6346,7 @@
         <v>5.8823529411764705E-2</v>
       </c>
     </row>
-    <row r="196" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>38</v>
       </c>
@@ -6375,7 +6374,7 @@
         <v>2.9411764705882353E-2</v>
       </c>
     </row>
-    <row r="197" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>38</v>
       </c>
@@ -6403,7 +6402,7 @@
         <v>0.14705882352941177</v>
       </c>
     </row>
-    <row r="198" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>38</v>
       </c>
@@ -6431,7 +6430,7 @@
         <v>5.8823529411764705E-2</v>
       </c>
     </row>
-    <row r="199" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>38</v>
       </c>
@@ -6459,7 +6458,7 @@
         <v>0.11764705882352941</v>
       </c>
     </row>
-    <row r="200" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>38</v>
       </c>
@@ -6487,7 +6486,7 @@
         <v>8.8235294117647065E-2</v>
       </c>
     </row>
-    <row r="201" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>38</v>
       </c>
@@ -6515,7 +6514,7 @@
         <v>0.17647058823529413</v>
       </c>
     </row>
-    <row r="202" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>38</v>
       </c>
@@ -6543,7 +6542,7 @@
         <v>2.9411764705882353E-2</v>
       </c>
     </row>
-    <row r="203" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>38</v>
       </c>
@@ -6571,7 +6570,7 @@
         <v>0.14705882352941177</v>
       </c>
     </row>
-    <row r="204" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>38</v>
       </c>
@@ -6599,7 +6598,7 @@
         <v>2.9411764705882353E-2</v>
       </c>
     </row>
-    <row r="205" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>38</v>
       </c>
@@ -6627,7 +6626,7 @@
         <v>0.20588235294117646</v>
       </c>
     </row>
-    <row r="206" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>38</v>
       </c>
@@ -6655,7 +6654,7 @@
         <v>5.8823529411764705E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>38</v>
       </c>
@@ -6683,7 +6682,7 @@
         <v>0.17647058823529413</v>
       </c>
     </row>
-    <row r="208" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>38</v>
       </c>
@@ -6711,7 +6710,7 @@
         <v>0.11764705882352941</v>
       </c>
     </row>
-    <row r="209" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>38</v>
       </c>
@@ -6739,7 +6738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>39</v>
       </c>
@@ -6767,7 +6766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>39</v>
       </c>
@@ -6795,7 +6794,7 @@
         <v>2.9411764705882353E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>39</v>
       </c>
@@ -6823,7 +6822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>39</v>
       </c>
@@ -6851,7 +6850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>39</v>
       </c>
@@ -6879,7 +6878,7 @@
         <v>2.9411764705882353E-2</v>
       </c>
     </row>
-    <row r="215" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>39</v>
       </c>
@@ -6907,7 +6906,7 @@
         <v>2.9411764705882353E-2</v>
       </c>
     </row>
-    <row r="216" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>39</v>
       </c>
@@ -6935,7 +6934,7 @@
         <v>2.9411764705882353E-2</v>
       </c>
     </row>
-    <row r="217" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>39</v>
       </c>
@@ -6963,7 +6962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>39</v>
       </c>
@@ -6991,7 +6990,7 @@
         <v>2.9411764705882353E-2</v>
       </c>
     </row>
-    <row r="219" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>39</v>
       </c>
@@ -7019,7 +7018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>39</v>
       </c>
@@ -7047,7 +7046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>39</v>
       </c>
@@ -7075,7 +7074,7 @@
         <v>2.9411764705882353E-2</v>
       </c>
     </row>
-    <row r="222" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>39</v>
       </c>
@@ -7103,7 +7102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>39</v>
       </c>
@@ -7131,7 +7130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>39</v>
       </c>
@@ -7159,7 +7158,7 @@
         <v>2.9411764705882353E-2</v>
       </c>
     </row>
-    <row r="225" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>39</v>
       </c>
@@ -7187,7 +7186,7 @@
         <v>2.9411764705882353E-2</v>
       </c>
     </row>
-    <row r="226" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>40</v>
       </c>
@@ -7215,7 +7214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>40</v>
       </c>
@@ -7243,7 +7242,7 @@
         <v>2.7777777777777776E-2</v>
       </c>
     </row>
-    <row r="228" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>40</v>
       </c>
@@ -7271,7 +7270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>40</v>
       </c>
@@ -7299,7 +7298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>40</v>
       </c>
@@ -7327,7 +7326,7 @@
         <v>2.7777777777777776E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>40</v>
       </c>
@@ -7355,7 +7354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>40</v>
       </c>
@@ -7383,7 +7382,7 @@
         <v>2.7777777777777776E-2</v>
       </c>
     </row>
-    <row r="233" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>40</v>
       </c>
@@ -7411,7 +7410,7 @@
         <v>2.7777777777777776E-2</v>
       </c>
     </row>
-    <row r="234" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>40</v>
       </c>
@@ -7439,7 +7438,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="235" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>40</v>
       </c>
@@ -7467,7 +7466,7 @@
         <v>0.19444444444444445</v>
       </c>
     </row>
-    <row r="236" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>40</v>
       </c>
@@ -7495,7 +7494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>40</v>
       </c>
@@ -7523,7 +7522,7 @@
         <v>2.7777777777777776E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>40</v>
       </c>
@@ -7551,7 +7550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>40</v>
       </c>
@@ -7579,7 +7578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>40</v>
       </c>
@@ -7607,7 +7606,7 @@
         <v>2.7777777777777776E-2</v>
       </c>
     </row>
-    <row r="241" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>40</v>
       </c>
@@ -7635,7 +7634,7 @@
         <v>2.7777777777777776E-2</v>
       </c>
     </row>
-    <row r="242" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>41</v>
       </c>
@@ -7665,7 +7664,7 @@
         <v>4.6511627906976744E-2</v>
       </c>
     </row>
-    <row r="243" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>41</v>
       </c>
@@ -7695,7 +7694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>41</v>
       </c>
@@ -7725,7 +7724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>41</v>
       </c>
@@ -7755,7 +7754,7 @@
         <v>2.3255813953488372E-2</v>
       </c>
     </row>
-    <row r="246" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>41</v>
       </c>
@@ -7785,7 +7784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>41</v>
       </c>
@@ -7815,7 +7814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>41</v>
       </c>
@@ -7845,7 +7844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>41</v>
       </c>
@@ -7877,7 +7876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>41</v>
       </c>
@@ -7909,7 +7908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>41</v>
       </c>
@@ -7941,7 +7940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>41</v>
       </c>
@@ -7973,7 +7972,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="253" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>41</v>
       </c>
@@ -8005,7 +8004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>41</v>
       </c>
@@ -8037,7 +8036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>41</v>
       </c>
@@ -8069,7 +8068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>41</v>
       </c>
@@ -8101,7 +8100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>41</v>
       </c>
@@ -8133,7 +8132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>41</v>
       </c>
@@ -8165,7 +8164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>41</v>
       </c>
@@ -8197,7 +8196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>41</v>
       </c>
@@ -8229,7 +8228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>41</v>
       </c>
@@ -8259,7 +8258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>41</v>
       </c>
@@ -8289,7 +8288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>62</v>
       </c>
@@ -8319,7 +8318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>62</v>
       </c>
@@ -8349,7 +8348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>62</v>
       </c>
@@ -8379,7 +8378,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="266" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>62</v>
       </c>
@@ -8409,7 +8408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>62</v>
       </c>
@@ -8439,7 +8438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>62</v>
       </c>
@@ -8469,7 +8468,7 @@
         <v>2.7777777777777776E-2</v>
       </c>
     </row>
-    <row r="269" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>62</v>
       </c>
@@ -8499,7 +8498,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="270" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>62</v>
       </c>
@@ -8529,7 +8528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>62</v>
       </c>
@@ -8751,7 +8750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>63</v>
       </c>
@@ -8781,7 +8780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>63</v>
       </c>
@@ -8811,7 +8810,7 @@
         <v>5.8823529411764705E-2</v>
       </c>
     </row>
-    <row r="280" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>63</v>
       </c>
@@ -8841,7 +8840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>63</v>
       </c>
@@ -8871,7 +8870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>63</v>
       </c>
@@ -8901,7 +8900,7 @@
         <v>5.8823529411764705E-2</v>
       </c>
     </row>
-    <row r="283" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>63</v>
       </c>
@@ -8931,7 +8930,7 @@
         <v>5.8823529411764705E-2</v>
       </c>
     </row>
-    <row r="284" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>63</v>
       </c>
@@ -8961,7 +8960,7 @@
         <v>0.91176470588235292</v>
       </c>
     </row>
-    <row r="285" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>63</v>
       </c>
@@ -8991,7 +8990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>63</v>
       </c>
@@ -9181,7 +9180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>66</v>
       </c>
@@ -9211,7 +9210,7 @@
         <v>0.13793103448275862</v>
       </c>
     </row>
-    <row r="293" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>66</v>
       </c>
@@ -9241,7 +9240,7 @@
         <v>3.4482758620689655E-2</v>
       </c>
     </row>
-    <row r="294" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>66</v>
       </c>
@@ -9271,7 +9270,7 @@
         <v>3.4482758620689655E-2</v>
       </c>
     </row>
-    <row r="295" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>66</v>
       </c>
@@ -9301,7 +9300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>66</v>
       </c>
@@ -9331,7 +9330,7 @@
         <v>3.4482758620689655E-2</v>
       </c>
     </row>
-    <row r="297" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>66</v>
       </c>
@@ -9361,7 +9360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>66</v>
       </c>
@@ -9391,7 +9390,7 @@
         <v>0.82758620689655171</v>
       </c>
     </row>
-    <row r="299" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>66</v>
       </c>
@@ -9421,7 +9420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>66</v>
       </c>
@@ -9579,7 +9578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>67</v>
       </c>
@@ -9609,7 +9608,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="306" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>67</v>
       </c>
@@ -9639,7 +9638,7 @@
         <v>5.2631578947368418E-2</v>
       </c>
     </row>
-    <row r="307" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>67</v>
       </c>
@@ -9669,7 +9668,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="308" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>67</v>
       </c>
@@ -9699,7 +9698,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="309" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>67</v>
       </c>
@@ -9729,7 +9728,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="310" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>67</v>
       </c>
@@ -9759,7 +9758,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="311" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>67</v>
       </c>
@@ -9789,7 +9788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>67</v>
       </c>
@@ -9819,7 +9818,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="313" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>67</v>
       </c>
@@ -10009,7 +10008,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="319" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>68</v>
       </c>
@@ -10039,7 +10038,7 @@
         <v>8.5714285714285715E-2</v>
       </c>
     </row>
-    <row r="320" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>68</v>
       </c>
@@ -10069,7 +10068,7 @@
         <v>3.0303030303030304E-2</v>
       </c>
     </row>
-    <row r="321" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>68</v>
       </c>
@@ -10099,7 +10098,7 @@
         <v>5.7142857142857141E-2</v>
       </c>
     </row>
-    <row r="322" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>68</v>
       </c>
@@ -10129,7 +10128,7 @@
         <v>5.7142857142857141E-2</v>
       </c>
     </row>
-    <row r="323" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
         <v>68</v>
       </c>
@@ -10159,7 +10158,7 @@
         <v>8.5714285714285715E-2</v>
       </c>
     </row>
-    <row r="324" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>68</v>
       </c>
@@ -10189,7 +10188,7 @@
         <v>8.5714285714285715E-2</v>
       </c>
     </row>
-    <row r="325" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
         <v>68</v>
       </c>
@@ -10219,7 +10218,7 @@
         <v>0.91428571428571426</v>
       </c>
     </row>
-    <row r="326" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
         <v>68</v>
       </c>
@@ -10249,7 +10248,7 @@
         <v>5.7142857142857141E-2</v>
       </c>
     </row>
-    <row r="327" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>68</v>
       </c>
@@ -10407,7 +10406,7 @@
         <v>9.0909090909090912E-2</v>
       </c>
     </row>
-    <row r="332" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
         <v>69</v>
       </c>
@@ -10437,7 +10436,7 @@
         <v>0.20930232558139536</v>
       </c>
     </row>
-    <row r="333" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>69</v>
       </c>
@@ -10467,7 +10466,7 @@
         <v>0.11627906976744186</v>
       </c>
     </row>
-    <row r="334" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
         <v>69</v>
       </c>
@@ -10497,7 +10496,7 @@
         <v>2.3255813953488372E-2</v>
       </c>
     </row>
-    <row r="335" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>69</v>
       </c>
@@ -10527,7 +10526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
         <v>69</v>
       </c>
@@ -10557,7 +10556,7 @@
         <v>4.6511627906976744E-2</v>
       </c>
     </row>
-    <row r="337" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
         <v>69</v>
       </c>
@@ -10587,7 +10586,7 @@
         <v>2.3255813953488372E-2</v>
       </c>
     </row>
-    <row r="338" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>69</v>
       </c>
@@ -10617,7 +10616,7 @@
         <v>0.95348837209302328</v>
       </c>
     </row>
-    <row r="339" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
         <v>69</v>
       </c>
@@ -10647,7 +10646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
         <v>69</v>
       </c>
@@ -10805,7 +10804,7 @@
         <v>2.3255813953488372E-2</v>
       </c>
     </row>
-    <row r="345" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
         <v>70</v>
       </c>
@@ -10835,7 +10834,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="346" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
         <v>70</v>
       </c>
@@ -10865,7 +10864,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="347" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
         <v>70</v>
       </c>
@@ -10895,7 +10894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
         <v>70</v>
       </c>
@@ -10925,7 +10924,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="349" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
         <v>70</v>
       </c>
@@ -10955,7 +10954,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="350" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
         <v>70</v>
       </c>
@@ -10985,7 +10984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
         <v>70</v>
       </c>
@@ -11015,7 +11014,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="352" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
         <v>70</v>
       </c>
@@ -11045,7 +11044,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="353" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
         <v>70</v>
       </c>
@@ -11203,7 +11202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
         <v>71</v>
       </c>
@@ -11233,7 +11232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
         <v>71</v>
       </c>
@@ -11263,7 +11262,7 @@
         <v>3.3333333333333333E-2</v>
       </c>
     </row>
-    <row r="360" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
         <v>71</v>
       </c>
@@ -11293,7 +11292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
         <v>71</v>
       </c>
@@ -11323,7 +11322,7 @@
         <v>3.3333333333333333E-2</v>
       </c>
     </row>
-    <row r="362" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
         <v>71</v>
       </c>
@@ -11353,7 +11352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
         <v>71</v>
       </c>
@@ -11383,7 +11382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
         <v>71</v>
       </c>
@@ -11413,7 +11412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
         <v>71</v>
       </c>
@@ -11445,7 +11444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
         <v>71</v>
       </c>
@@ -11477,7 +11476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
         <v>71</v>
       </c>
@@ -11509,7 +11508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
         <v>71</v>
       </c>
@@ -11541,7 +11540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
         <v>71</v>
       </c>
@@ -11573,7 +11572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
         <v>71</v>
       </c>
@@ -11605,7 +11604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
         <v>71</v>
       </c>
@@ -11637,7 +11636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
         <v>71</v>
       </c>
@@ -11669,7 +11668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
         <v>71</v>
       </c>
@@ -11701,7 +11700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
         <v>71</v>
       </c>
@@ -11733,7 +11732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
         <v>71</v>
       </c>
@@ -11765,7 +11764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
         <v>71</v>
       </c>
@@ -11797,7 +11796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
         <v>71</v>
       </c>
@@ -11827,7 +11826,7 @@
         <v>3.3333333333333333E-2</v>
       </c>
     </row>
-    <row r="378" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
         <v>71</v>
       </c>
@@ -11857,7 +11856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
         <v>72</v>
       </c>
@@ -11887,7 +11886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
         <v>72</v>
       </c>
@@ -11917,7 +11916,7 @@
         <v>6.4516129032258063E-2</v>
       </c>
     </row>
-    <row r="381" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
         <v>72</v>
       </c>
@@ -11947,7 +11946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
         <v>72</v>
       </c>
@@ -11977,7 +11976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
         <v>72</v>
       </c>
@@ -12007,7 +12006,7 @@
         <v>3.2258064516129031E-2</v>
       </c>
     </row>
-    <row r="384" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
         <v>72</v>
       </c>
@@ -12037,7 +12036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
         <v>72</v>
       </c>
@@ -12067,7 +12066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
         <v>72</v>
       </c>
@@ -12099,7 +12098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
         <v>72</v>
       </c>
@@ -12131,7 +12130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
         <v>72</v>
       </c>
@@ -12163,7 +12162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
         <v>72</v>
       </c>
@@ -12195,7 +12194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
         <v>72</v>
       </c>
@@ -12227,7 +12226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
         <v>72</v>
       </c>
@@ -12259,7 +12258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
         <v>72</v>
       </c>
@@ -12291,7 +12290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
         <v>72</v>
       </c>
@@ -12323,7 +12322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
         <v>72</v>
       </c>
@@ -12355,7 +12354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
         <v>72</v>
       </c>
@@ -12387,7 +12386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
         <v>72</v>
       </c>
@@ -12419,7 +12418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
         <v>72</v>
       </c>
@@ -12451,7 +12450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
         <v>72</v>
       </c>
@@ -12481,7 +12480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
         <v>72</v>
       </c>
@@ -12511,7 +12510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
         <v>64</v>
       </c>
@@ -12541,7 +12540,7 @@
         <v>0.21875</v>
       </c>
     </row>
-    <row r="401" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
         <v>64</v>
       </c>
@@ -12571,7 +12570,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="402" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
         <v>64</v>
       </c>
@@ -12601,7 +12600,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="403" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
         <v>64</v>
       </c>
@@ -12631,7 +12630,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="404" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
         <v>64</v>
       </c>
@@ -12661,7 +12660,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="405" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
         <v>64</v>
       </c>
@@ -12691,7 +12690,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="406" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
         <v>64</v>
       </c>
@@ -12721,7 +12720,7 @@
         <v>0.9375</v>
       </c>
     </row>
-    <row r="407" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
         <v>64</v>
       </c>
@@ -12751,7 +12750,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="408" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
         <v>64</v>
       </c>
@@ -12941,7 +12940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
         <v>74</v>
       </c>
@@ -12971,7 +12970,7 @@
         <v>0.20689655172413793</v>
       </c>
     </row>
-    <row r="415" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
         <v>74</v>
       </c>
@@ -13001,7 +13000,7 @@
         <v>3.4482758620689655E-2</v>
       </c>
     </row>
-    <row r="416" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
         <v>74</v>
       </c>
@@ -13031,7 +13030,7 @@
         <v>3.4482758620689655E-2</v>
       </c>
     </row>
-    <row r="417" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
         <v>74</v>
       </c>
@@ -13061,7 +13060,7 @@
         <v>6.8965517241379309E-2</v>
       </c>
     </row>
-    <row r="418" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
         <v>74</v>
       </c>
@@ -13091,7 +13090,7 @@
         <v>3.4482758620689655E-2</v>
       </c>
     </row>
-    <row r="419" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
         <v>74</v>
       </c>
@@ -13121,7 +13120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
         <v>74</v>
       </c>
@@ -13151,7 +13150,7 @@
         <v>0.89655172413793105</v>
       </c>
     </row>
-    <row r="421" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
         <v>74</v>
       </c>
@@ -13181,7 +13180,7 @@
         <v>6.8965517241379309E-2</v>
       </c>
     </row>
-    <row r="422" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
         <v>74</v>
       </c>
@@ -13371,7 +13370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
         <v>75</v>
       </c>
@@ -13401,7 +13400,7 @@
         <v>0.17241379310344829</v>
       </c>
     </row>
-    <row r="429" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
         <v>75</v>
       </c>
@@ -13431,7 +13430,7 @@
         <v>0.10344827586206896</v>
       </c>
     </row>
-    <row r="430" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
         <v>75</v>
       </c>
@@ -13461,7 +13460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
         <v>75</v>
       </c>
@@ -13491,7 +13490,7 @@
         <v>0.10344827586206896</v>
       </c>
     </row>
-    <row r="432" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
         <v>75</v>
       </c>
@@ -13521,7 +13520,7 @@
         <v>0.10344827586206896</v>
       </c>
     </row>
-    <row r="433" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
         <v>75</v>
       </c>
@@ -13551,7 +13550,7 @@
         <v>0.13793103448275862</v>
       </c>
     </row>
-    <row r="434" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
         <v>75</v>
       </c>
@@ -13581,7 +13580,7 @@
         <v>0.93103448275862066</v>
       </c>
     </row>
-    <row r="435" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
         <v>75</v>
       </c>
@@ -13611,7 +13610,7 @@
         <v>0.10344827586206896</v>
       </c>
     </row>
-    <row r="436" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
         <v>75</v>
       </c>
@@ -13801,7 +13800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
         <v>76</v>
       </c>
@@ -13831,7 +13830,7 @@
         <v>9.0909090909090912E-2</v>
       </c>
     </row>
-    <row r="443" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
         <v>76</v>
       </c>
@@ -13861,7 +13860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
         <v>76</v>
       </c>
@@ -13891,7 +13890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
         <v>76</v>
       </c>
@@ -13921,7 +13920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
         <v>76</v>
       </c>
@@ -13951,7 +13950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
         <v>76</v>
       </c>
@@ -13981,7 +13980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
         <v>76</v>
       </c>
@@ -14011,7 +14010,7 @@
         <v>0.86363636363636365</v>
       </c>
     </row>
-    <row r="449" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
         <v>76</v>
       </c>
@@ -14041,7 +14040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A450" s="1" t="s">
         <v>76</v>
       </c>
@@ -14263,7 +14262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A457" s="1" t="s">
         <v>77</v>
       </c>
@@ -14293,7 +14292,7 @@
         <v>8.5714285714285715E-2</v>
       </c>
     </row>
-    <row r="458" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A458" s="1" t="s">
         <v>77</v>
       </c>
@@ -14323,7 +14322,7 @@
         <v>8.5714285714285715E-2</v>
       </c>
     </row>
-    <row r="459" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
         <v>77</v>
       </c>
@@ -14353,7 +14352,7 @@
         <v>8.5714285714285715E-2</v>
       </c>
     </row>
-    <row r="460" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
         <v>77</v>
       </c>
@@ -14383,7 +14382,7 @@
         <v>2.8571428571428571E-2</v>
       </c>
     </row>
-    <row r="461" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
         <v>77</v>
       </c>
@@ -14413,7 +14412,7 @@
         <v>2.8571428571428571E-2</v>
       </c>
     </row>
-    <row r="462" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
         <v>77</v>
       </c>
@@ -14443,7 +14442,7 @@
         <v>2.8571428571428571E-2</v>
       </c>
     </row>
-    <row r="463" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A463" s="1" t="s">
         <v>77</v>
       </c>
@@ -14473,7 +14472,7 @@
         <v>0.91428571428571426</v>
       </c>
     </row>
-    <row r="464" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A464" s="1" t="s">
         <v>77</v>
       </c>
@@ -14503,7 +14502,7 @@
         <v>2.8571428571428571E-2</v>
       </c>
     </row>
-    <row r="465" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A465" s="1" t="s">
         <v>77</v>
       </c>
@@ -14693,7 +14692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A471" s="1" t="s">
         <v>78</v>
       </c>
@@ -14723,7 +14722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A472" s="1" t="s">
         <v>78</v>
       </c>
@@ -14753,7 +14752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A473" s="1" t="s">
         <v>78</v>
       </c>
@@ -14783,7 +14782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A474" s="1" t="s">
         <v>78</v>
       </c>
@@ -14813,7 +14812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A475" s="1" t="s">
         <v>78</v>
       </c>
@@ -14843,7 +14842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A476" s="1" t="s">
         <v>78</v>
       </c>
@@ -14873,7 +14872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A477" s="1" t="s">
         <v>78</v>
       </c>
@@ -14903,7 +14902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A478" s="1" t="s">
         <v>78</v>
       </c>
@@ -14933,7 +14932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A479" s="1" t="s">
         <v>78</v>
       </c>
@@ -15155,7 +15154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A486" s="1" t="s">
         <v>79</v>
       </c>
@@ -15185,7 +15184,7 @@
         <v>0.14705882352941177</v>
       </c>
     </row>
-    <row r="487" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A487" s="1" t="s">
         <v>79</v>
       </c>
@@ -15215,7 +15214,7 @@
         <v>0.20588235294117646</v>
       </c>
     </row>
-    <row r="488" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A488" s="1" t="s">
         <v>79</v>
       </c>
@@ -15245,7 +15244,7 @@
         <v>0.20588235294117646</v>
       </c>
     </row>
-    <row r="489" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A489" s="1" t="s">
         <v>79</v>
       </c>
@@ -15275,7 +15274,7 @@
         <v>2.9411764705882353E-2</v>
       </c>
     </row>
-    <row r="490" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A490" s="1" t="s">
         <v>79</v>
       </c>
@@ -15305,7 +15304,7 @@
         <v>2.9411764705882353E-2</v>
       </c>
     </row>
-    <row r="491" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A491" s="1" t="s">
         <v>79</v>
       </c>
@@ -15335,7 +15334,7 @@
         <v>2.9411764705882353E-2</v>
       </c>
     </row>
-    <row r="492" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A492" s="1" t="s">
         <v>79</v>
       </c>
@@ -15365,7 +15364,7 @@
         <v>0.88235294117647056</v>
       </c>
     </row>
-    <row r="493" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A493" s="1" t="s">
         <v>79</v>
       </c>
@@ -15395,7 +15394,7 @@
         <v>2.9411764705882353E-2</v>
       </c>
     </row>
-    <row r="494" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A494" s="1" t="s">
         <v>79</v>
       </c>
@@ -15585,7 +15584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A500" s="1" t="s">
         <v>80</v>
       </c>
@@ -15615,7 +15614,7 @@
         <v>4.5454545454545456E-2</v>
       </c>
     </row>
-    <row r="501" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A501" s="1" t="s">
         <v>80</v>
       </c>
@@ -15645,7 +15644,7 @@
         <v>0.13636363636363635</v>
       </c>
     </row>
-    <row r="502" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A502" s="1" t="s">
         <v>80</v>
       </c>
@@ -15675,7 +15674,7 @@
         <v>9.0909090909090912E-2</v>
       </c>
     </row>
-    <row r="503" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A503" s="1" t="s">
         <v>80</v>
       </c>
@@ -15705,7 +15704,7 @@
         <v>4.5454545454545456E-2</v>
       </c>
     </row>
-    <row r="504" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A504" s="1" t="s">
         <v>80</v>
       </c>
@@ -15735,7 +15734,7 @@
         <v>4.5454545454545456E-2</v>
       </c>
     </row>
-    <row r="505" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A505" s="1" t="s">
         <v>80</v>
       </c>
@@ -15765,7 +15764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A506" s="1" t="s">
         <v>80</v>
       </c>
@@ -15795,7 +15794,7 @@
         <v>4.5454545454545456E-2</v>
       </c>
     </row>
-    <row r="507" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A507" s="1" t="s">
         <v>80</v>
       </c>
@@ -15825,7 +15824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A508" s="1" t="s">
         <v>80</v>
       </c>
@@ -16016,13 +16015,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J513" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="CARRERAS"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>